--- a/PropertyTree Data/PropertyTree_Accounts.xlsx
+++ b/PropertyTree Data/PropertyTree_Accounts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sbdopmrentals-my.sharepoint.com/personal/sahil_singh_longview_com_au/Documents/Desktop/Longview Sahil/LongView Data Migration/PropertyTree Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDF0FBCE1E1D2D4CC17DD3D0AF6756BCCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92540A1-FA87-4488-B156-EA9090E72707}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -442,8 +448,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,13 +512,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,7 +564,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -584,6 +598,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -618,9 +633,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -793,14 +809,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -825,7 +846,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -836,7 +857,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -847,7 +868,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -858,7 +879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -869,7 +890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -880,7 +901,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -891,7 +912,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -902,7 +923,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -913,7 +934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -924,7 +945,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -935,7 +956,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -946,7 +967,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -957,7 +978,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -968,7 +989,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -979,7 +1000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -990,7 +1011,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1022,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1033,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1023,7 +1044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1034,7 +1055,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1066,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1056,7 +1077,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1067,7 +1088,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1078,7 +1099,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1089,7 +1110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1100,7 +1121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1132,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1122,7 +1143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1133,7 +1154,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1144,7 +1165,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1155,7 +1176,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1166,7 +1187,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1177,7 +1198,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1188,7 +1209,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1199,7 +1220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1210,7 +1231,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1221,7 +1242,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1253,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1243,7 +1264,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1254,7 +1275,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1265,7 +1286,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1276,7 +1297,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1287,7 +1308,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1298,7 +1319,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1309,7 +1330,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1320,7 +1341,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1331,7 +1352,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1342,7 +1363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1353,7 +1374,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1364,7 +1385,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1375,7 +1396,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1386,7 +1407,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1397,7 +1418,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1408,7 +1429,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1419,7 +1440,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1430,7 +1451,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1441,7 +1462,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1452,7 +1473,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1463,7 +1484,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1474,7 +1495,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1485,7 +1506,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1507,7 +1528,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1518,7 +1539,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1529,7 +1550,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1540,7 +1561,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
